--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Pdgfrb</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.7775326875174</v>
+        <v>22.113303</v>
       </c>
       <c r="H2">
-        <v>21.7775326875174</v>
+        <v>66.33990900000001</v>
       </c>
       <c r="I2">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933797</v>
       </c>
       <c r="J2">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.65495039995025</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N2">
-        <v>3.65495039995025</v>
+        <v>15.317941</v>
       </c>
       <c r="O2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P2">
-        <v>0.03314322949012163</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q2">
-        <v>79.59580180617137</v>
+        <v>112.910090223041</v>
       </c>
       <c r="R2">
-        <v>79.59580180617137</v>
+        <v>1016.190812007369</v>
       </c>
       <c r="S2">
-        <v>0.03055186000392086</v>
+        <v>0.04120976305464005</v>
       </c>
       <c r="T2">
-        <v>0.03055186000392086</v>
+        <v>0.04120976305464005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.7775326875174</v>
+        <v>22.113303</v>
       </c>
       <c r="H3">
-        <v>21.7775326875174</v>
+        <v>66.33990900000001</v>
       </c>
       <c r="I3">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933797</v>
       </c>
       <c r="J3">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.7096835271813</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N3">
-        <v>92.7096835271813</v>
+        <v>278.476586</v>
       </c>
       <c r="O3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P3">
-        <v>0.8406949427110538</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q3">
-        <v>2018.988163462584</v>
+        <v>2052.679041541186</v>
       </c>
       <c r="R3">
-        <v>2018.988163462584</v>
+        <v>18474.11137387068</v>
       </c>
       <c r="S3">
-        <v>0.7749635322462393</v>
+        <v>0.7491838573686301</v>
       </c>
       <c r="T3">
-        <v>0.7749635322462393</v>
+        <v>0.74918385736863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.7775326875174</v>
+        <v>22.113303</v>
       </c>
       <c r="H4">
-        <v>21.7775326875174</v>
+        <v>66.33990900000001</v>
       </c>
       <c r="I4">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933797</v>
       </c>
       <c r="J4">
-        <v>0.921813005972362</v>
+        <v>0.9168319126933796</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.9128030088077</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N4">
-        <v>13.9128030088077</v>
+        <v>0.130546</v>
       </c>
       <c r="O4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P4">
-        <v>0.1261618277988245</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q4">
-        <v>302.9865222993001</v>
+        <v>0.962267751146</v>
       </c>
       <c r="R4">
-        <v>302.9865222993001</v>
+        <v>8.660409760314</v>
       </c>
       <c r="S4">
-        <v>0.116297613722202</v>
+        <v>0.0003512071059505346</v>
       </c>
       <c r="T4">
-        <v>0.116297613722202</v>
+        <v>0.0003512071059505347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.70181319552331</v>
+        <v>22.113303</v>
       </c>
       <c r="H5">
-        <v>1.70181319552331</v>
+        <v>66.33990900000001</v>
       </c>
       <c r="I5">
-        <v>0.07203541190265152</v>
+        <v>0.9168319126933797</v>
       </c>
       <c r="J5">
-        <v>0.07203541190265152</v>
+        <v>0.9168319126933796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.65495039995025</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N5">
-        <v>3.65495039995025</v>
+        <v>46.867402</v>
       </c>
       <c r="O5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P5">
-        <v>0.03314322949012163</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q5">
-        <v>6.220042819618535</v>
+        <v>345.464353749602</v>
       </c>
       <c r="R5">
-        <v>6.220042819618535</v>
+        <v>3109.179183746418</v>
       </c>
       <c r="S5">
-        <v>0.002387486188105019</v>
+        <v>0.126087085164159</v>
       </c>
       <c r="T5">
-        <v>0.002387486188105019</v>
+        <v>0.126087085164159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.70181319552331</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H6">
-        <v>1.70181319552331</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I6">
-        <v>0.07203541190265152</v>
+        <v>0.0765455915264161</v>
       </c>
       <c r="J6">
-        <v>0.07203541190265152</v>
+        <v>0.07654559152641609</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.7096835271813</v>
+        <v>5.105980333333334</v>
       </c>
       <c r="N6">
-        <v>92.7096835271813</v>
+        <v>15.317941</v>
       </c>
       <c r="O6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="P6">
-        <v>0.8406949427110538</v>
+        <v>0.04494800244635684</v>
       </c>
       <c r="Q6">
-        <v>157.7745627793472</v>
+        <v>9.426776626954222</v>
       </c>
       <c r="R6">
-        <v>157.7745627793472</v>
+        <v>84.840989642588</v>
       </c>
       <c r="S6">
-        <v>0.06055980648266678</v>
+        <v>0.003440571435187182</v>
       </c>
       <c r="T6">
-        <v>0.06055980648266678</v>
+        <v>0.003440571435187182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.70181319552331</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H7">
-        <v>1.70181319552331</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I7">
-        <v>0.07203541190265152</v>
+        <v>0.0765455915264161</v>
       </c>
       <c r="J7">
-        <v>0.07203541190265152</v>
+        <v>0.07654559152641609</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9128030088077</v>
+        <v>92.82552866666667</v>
       </c>
       <c r="N7">
-        <v>13.9128030088077</v>
+        <v>278.476586</v>
       </c>
       <c r="O7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="P7">
-        <v>0.1261618277988245</v>
+        <v>0.8171441754985934</v>
       </c>
       <c r="Q7">
-        <v>23.67699174710535</v>
+        <v>171.3765950697164</v>
       </c>
       <c r="R7">
-        <v>23.67699174710535</v>
+        <v>1542.389355627448</v>
       </c>
       <c r="S7">
-        <v>0.009088119231879715</v>
+        <v>0.06254878427590541</v>
       </c>
       <c r="T7">
-        <v>0.009088119231879715</v>
+        <v>0.06254878427590539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.145329128509665</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H8">
-        <v>0.145329128509665</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I8">
-        <v>0.006151582124986351</v>
+        <v>0.0765455915264161</v>
       </c>
       <c r="J8">
-        <v>0.006151582124986351</v>
+        <v>0.07654559152641609</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.65495039995025</v>
+        <v>0.04351533333333333</v>
       </c>
       <c r="N8">
-        <v>3.65495039995025</v>
+        <v>0.130546</v>
       </c>
       <c r="O8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865731</v>
       </c>
       <c r="P8">
-        <v>0.03314322949012163</v>
+        <v>0.0003830659699865732</v>
       </c>
       <c r="Q8">
-        <v>0.5311707563708215</v>
+        <v>0.08033899474755554</v>
       </c>
       <c r="R8">
-        <v>0.5311707563708215</v>
+        <v>0.7230509527279999</v>
       </c>
       <c r="S8">
-        <v>0.0002038832980957528</v>
+        <v>2.93220112662626E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002038832980957528</v>
+        <v>2.93220112662626E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.145329128509665</v>
+        <v>1.846222666666667</v>
       </c>
       <c r="H9">
-        <v>0.145329128509665</v>
+        <v>5.538667999999999</v>
       </c>
       <c r="I9">
-        <v>0.006151582124986351</v>
+        <v>0.0765455915264161</v>
       </c>
       <c r="J9">
-        <v>0.006151582124986351</v>
+        <v>0.07654559152641609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>92.7096835271813</v>
+        <v>15.62246733333333</v>
       </c>
       <c r="N9">
-        <v>92.7096835271813</v>
+        <v>46.867402</v>
       </c>
       <c r="O9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="P9">
-        <v>0.8406949427110538</v>
+        <v>0.1375247560850632</v>
       </c>
       <c r="Q9">
-        <v>13.4734175114121</v>
+        <v>28.84255330005955</v>
       </c>
       <c r="R9">
-        <v>13.4734175114121</v>
+        <v>259.582979700536</v>
       </c>
       <c r="S9">
-        <v>0.005171603982147744</v>
+        <v>0.01052691380405726</v>
       </c>
       <c r="T9">
-        <v>0.005171603982147744</v>
+        <v>0.01052691380405725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1597296666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.479189</v>
+      </c>
+      <c r="I10">
+        <v>0.006622495780204159</v>
+      </c>
+      <c r="J10">
+        <v>0.006622495780204158</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.105980333333334</v>
+      </c>
+      <c r="N10">
+        <v>15.317941</v>
+      </c>
+      <c r="O10">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="P10">
+        <v>0.04494800244635684</v>
+      </c>
+      <c r="Q10">
+        <v>0.8155765366498889</v>
+      </c>
+      <c r="R10">
+        <v>7.340188829849001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002976679565296044</v>
+      </c>
+      <c r="T10">
+        <v>0.0002976679565296044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.145329128509665</v>
-      </c>
-      <c r="H10">
-        <v>0.145329128509665</v>
-      </c>
-      <c r="I10">
-        <v>0.006151582124986351</v>
-      </c>
-      <c r="J10">
-        <v>0.006151582124986351</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="N10">
-        <v>13.9128030088077</v>
-      </c>
-      <c r="O10">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="P10">
-        <v>0.1261618277988245</v>
-      </c>
-      <c r="Q10">
-        <v>2.021935536396668</v>
-      </c>
-      <c r="R10">
-        <v>2.021935536396668</v>
-      </c>
-      <c r="S10">
-        <v>0.0007760948447428552</v>
-      </c>
-      <c r="T10">
-        <v>0.0007760948447428552</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1597296666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.479189</v>
+      </c>
+      <c r="I11">
+        <v>0.006622495780204159</v>
+      </c>
+      <c r="J11">
+        <v>0.006622495780204158</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>92.82552866666667</v>
+      </c>
+      <c r="N11">
+        <v>278.476586</v>
+      </c>
+      <c r="O11">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="P11">
+        <v>0.8171441754985934</v>
+      </c>
+      <c r="Q11">
+        <v>14.82699075208378</v>
+      </c>
+      <c r="R11">
+        <v>133.442916768754</v>
+      </c>
+      <c r="S11">
+        <v>0.005411533854057841</v>
+      </c>
+      <c r="T11">
+        <v>0.005411533854057841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1597296666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.479189</v>
+      </c>
+      <c r="I12">
+        <v>0.006622495780204159</v>
+      </c>
+      <c r="J12">
+        <v>0.006622495780204158</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04351533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.130546</v>
+      </c>
+      <c r="O12">
+        <v>0.0003830659699865731</v>
+      </c>
+      <c r="P12">
+        <v>0.0003830659699865732</v>
+      </c>
+      <c r="Q12">
+        <v>0.006950689688222221</v>
+      </c>
+      <c r="R12">
+        <v>0.062556207194</v>
+      </c>
+      <c r="S12">
+        <v>2.536852769775894E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.536852769775894E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1597296666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.479189</v>
+      </c>
+      <c r="I13">
+        <v>0.006622495780204159</v>
+      </c>
+      <c r="J13">
+        <v>0.006622495780204158</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.62246733333333</v>
+      </c>
+      <c r="N13">
+        <v>46.867402</v>
+      </c>
+      <c r="O13">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="P13">
+        <v>0.1375247560850632</v>
+      </c>
+      <c r="Q13">
+        <v>2.495371499664222</v>
+      </c>
+      <c r="R13">
+        <v>22.458343496978</v>
+      </c>
+      <c r="S13">
+        <v>0.0009107571168469373</v>
+      </c>
+      <c r="T13">
+        <v>0.0009107571168469372</v>
       </c>
     </row>
   </sheetData>
